--- a/AUTOvalorant/availableAgents.xlsx
+++ b/AUTOvalorant/availableAgents.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\inGameSelection\AUTOvalorant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF99365A-E218-4C02-858E-F235C8FB4ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C64680-82D8-4D2B-8889-0087EA595ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15557" yWindow="-1123" windowWidth="14040" windowHeight="12934" xr2:uid="{C170FA88-9792-427E-A191-8EBCAC680A35}"/>
+    <workbookView xWindow="-33017" yWindow="-3463" windowWidth="33120" windowHeight="18720" xr2:uid="{C170FA88-9792-427E-A191-8EBCAC680A35}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$H$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="32">
   <si>
     <t>Agent</t>
   </si>
@@ -111,13 +114,16 @@
     <t>LaVanTor</t>
   </si>
   <si>
-    <t>speakEngInVal</t>
-  </si>
-  <si>
     <t>Dear Curi</t>
   </si>
   <si>
     <t>o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order </t>
+  </si>
+  <si>
+    <t>yodasgini</t>
   </si>
 </sst>
 </file>
@@ -469,411 +475,510 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA5C375-D406-468A-8915-D589DE784926}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H1" xr:uid="{BCA5C375-D406-468A-8915-D589DE784926}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H24">
+      <sortCondition descending="1" ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/AUTOvalorant/availableAgents.xlsx
+++ b/AUTOvalorant/availableAgents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\inGameSelection\AUTOvalorant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C64680-82D8-4D2B-8889-0087EA595ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4580C3-7F9C-4053-B830-C97BCC4F64C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33017" yWindow="-3463" windowWidth="33120" windowHeight="18720" xr2:uid="{C170FA88-9792-427E-A191-8EBCAC680A35}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="32">
   <si>
     <t>Agent</t>
   </si>
@@ -108,9 +108,6 @@
     <t>xav1er</t>
   </si>
   <si>
-    <t>oOoOoOo</t>
-  </si>
-  <si>
     <t>LaVanTor</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>yodasgini</t>
+  </si>
+  <si>
+    <t>LatdawN</t>
   </si>
 </sst>
 </file>
@@ -163,7 +163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -478,8 +478,8 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -489,7 +489,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -498,191 +498,212 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -693,267 +714,267 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -964,19 +985,19 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{BCA5C375-D406-468A-8915-D589DE784926}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H24">
-      <sortCondition descending="1" ref="B1"/>
+      <sortCondition ref="G1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AUTOvalorant/availableAgents.xlsx
+++ b/AUTOvalorant/availableAgents.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\inGameSelection\AUTOvalorant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4580C3-7F9C-4053-B830-C97BCC4F64C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63492841-5F24-450E-A589-D597149D476F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33017" yWindow="-3463" windowWidth="33120" windowHeight="18720" xr2:uid="{C170FA88-9792-427E-A191-8EBCAC680A35}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="32">
   <si>
     <t>Agent</t>
   </si>
@@ -139,12 +139,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -159,8 +165,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,8 +485,8 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -517,7 +524,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
@@ -541,10 +548,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -567,10 +574,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -593,10 +600,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -619,10 +626,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -637,15 +644,18 @@
         <v>28</v>
       </c>
       <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -654,9 +664,6 @@
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
         <v>28</v>
       </c>
       <c r="G7" t="s">
@@ -668,10 +675,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -688,30 +695,24 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -720,21 +721,15 @@
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -746,18 +741,15 @@
         <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -774,10 +766,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -785,22 +777,16 @@
       <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="E13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -809,24 +795,15 @@
         <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -835,15 +812,24 @@
         <v>28</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -857,10 +843,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -869,15 +855,24 @@
         <v>28</v>
       </c>
       <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -886,15 +881,21 @@
         <v>28</v>
       </c>
       <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -903,18 +904,15 @@
         <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -923,18 +921,15 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -943,15 +938,18 @@
         <v>28</v>
       </c>
       <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -960,29 +958,35 @@
         <v>28</v>
       </c>
       <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
       </c>
       <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -990,14 +994,20 @@
       <c r="D24" t="s">
         <v>28</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{BCA5C375-D406-468A-8915-D589DE784926}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H24">
-      <sortCondition ref="G1"/>
+      <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AUTOvalorant/availableAgents.xlsx
+++ b/AUTOvalorant/availableAgents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\inGameSelection\AUTOvalorant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63492841-5F24-450E-A589-D597149D476F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E79ED6-B2FD-41A6-BF10-36F5E0FC6BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33017" yWindow="-3463" windowWidth="33120" windowHeight="18720" xr2:uid="{C170FA88-9792-427E-A191-8EBCAC680A35}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C170FA88-9792-427E-A191-8EBCAC680A35}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="33">
   <si>
     <t>Agent</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>LatdawN</t>
+  </si>
+  <si>
+    <t>clove</t>
   </si>
 </sst>
 </file>
@@ -482,11 +485,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA5C375-D406-468A-8915-D589DE784926}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -994,6 +997,9 @@
       <c r="D24" t="s">
         <v>28</v>
       </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
       <c r="F24" t="s">
         <v>28</v>
       </c>
@@ -1002,6 +1008,14 @@
       </c>
       <c r="H24" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
